--- a/Nowcasts/2025Q3/tables/nowcasts_2025Q3_Nr1_Np1_Nj1.xlsx
+++ b/Nowcasts/2025Q3/tables/nowcasts_2025Q3_Nr1_Np1_Nj1.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>Row</t>
   </si>
@@ -106,6 +106,72 @@
   </si>
   <si>
     <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-30</t>
   </si>
   <si>
     <t>Prognose</t>
@@ -181,13 +247,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K12"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.37890625" customWidth="true"/>
     <col min="2" max="2" width="15.24609375" customWidth="true"/>
-    <col min="3" max="3" width="15.24609375" customWidth="true"/>
-    <col min="4" max="4" width="15.64453125" customWidth="true"/>
+    <col min="3" max="3" width="14.64453125" customWidth="true"/>
+    <col min="4" max="4" width="14.64453125" customWidth="true"/>
     <col min="5" max="5" width="16.24609375" customWidth="true"/>
     <col min="6" max="6" width="16.24609375" customWidth="true"/>
     <col min="7" max="7" width="15.77734375" customWidth="true"/>
@@ -199,45 +265,45 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="B2" s="0">
-        <v>0.2952070075910746</v>
+        <v>0.29515230513940172</v>
       </c>
       <c r="C2" s="0">
         <v>0</v>
@@ -269,317 +335,352 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="B3" s="0">
-        <v>0.29596369244784093</v>
+        <v>0.29590581634224794</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>0.0011385697756437899</v>
+        <v>0.0011378175204363643</v>
       </c>
       <c r="E3" s="0">
-        <v>-7.4196386850196454e-05</v>
+        <v>-7.482977947776712e-05</v>
       </c>
       <c r="F3" s="0">
-        <v>5.0786150179082875e-06</v>
+        <v>2.780734069021098e-06</v>
       </c>
       <c r="G3" s="0">
-        <v>-4.607839821010282e-05</v>
+        <v>-4.5767141353086311e-05</v>
       </c>
       <c r="H3" s="0">
-        <v>4.2034682522433408e-07</v>
+        <v>3.2361616386279458e-07</v>
       </c>
       <c r="I3" s="0">
-        <v>-0.00034555642827414684</v>
+        <v>-0.00034526102479022025</v>
       </c>
       <c r="J3" s="0">
         <v>0</v>
       </c>
       <c r="K3" s="0">
-        <v>7.8447332613862386e-05</v>
+        <v>7.8447277798043835e-05</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="B4" s="0">
-        <v>0.28671066009550777</v>
+        <v>0.28563153069162722</v>
       </c>
       <c r="C4" s="0">
-        <v>-0.0081889242208071748</v>
+        <v>-0.0092187592196895981</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>-1.0569464994298066e-05</v>
+        <v>-1.0552066146064088e-05</v>
       </c>
       <c r="F4" s="0">
-        <v>-7.4708051751897747e-07</v>
+        <v>-3.8252996974079545e-07</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
       </c>
       <c r="H4" s="0">
-        <v>6.4110764433483725e-06</v>
+        <v>6.7906626925608551e-06</v>
       </c>
       <c r="I4" s="0">
-        <v>-0.0014776376964708326</v>
+        <v>-0.0014760168017231134</v>
       </c>
       <c r="J4" s="0">
-        <v>0.00041414542053909252</v>
+        <v>0.00042033815336391057</v>
       </c>
       <c r="K4" s="0">
-        <v>4.2896134742065328e-06</v>
+        <v>4.2961508513461588e-06</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="B5" s="0">
-        <v>0.29012045068194514</v>
+        <v>0.29018361655644137</v>
       </c>
       <c r="C5" s="0">
-        <v>0.0066532269403930299</v>
+        <v>0.0077312126418730255</v>
       </c>
       <c r="D5" s="0">
-        <v>0.00095168842250917393</v>
+        <v>0.0010170571814887128</v>
       </c>
       <c r="E5" s="0">
-        <v>-0.00027934110118090687</v>
+        <v>-0.00028040171741685623</v>
       </c>
       <c r="F5" s="0">
-        <v>-0.00053940095102906289</v>
+        <v>-0.00054262425465993714</v>
       </c>
       <c r="G5" s="0">
-        <v>-0.0024665720667258273</v>
+        <v>-0.0024635687512932322</v>
       </c>
       <c r="H5" s="0">
-        <v>-5.5297538434088123e-05</v>
+        <v>-5.5471590411047531e-05</v>
       </c>
       <c r="I5" s="0">
-        <v>-0.00053727125243999271</v>
+        <v>-0.0005368735911450152</v>
       </c>
       <c r="J5" s="0">
         <v>0</v>
       </c>
       <c r="K5" s="0">
-        <v>-0.00031724186665493814</v>
+        <v>-0.00031724405362149044</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="B6" s="0">
-        <v>0.56965135810306344</v>
+        <v>0.56973772635444619</v>
       </c>
       <c r="C6" s="0">
-        <v>0.28170800361474302</v>
+        <v>0.28173281508188691</v>
       </c>
       <c r="D6" s="0">
         <v>0</v>
       </c>
       <c r="E6" s="0">
-        <v>2.8077232770409568e-05</v>
+        <v>2.8075922827868678e-05</v>
       </c>
       <c r="F6" s="0">
-        <v>-0.00036114136025508004</v>
+        <v>-0.00036127241602645904</v>
       </c>
       <c r="G6" s="0">
         <v>0</v>
       </c>
       <c r="H6" s="0">
-        <v>-6.6288231620993963e-05</v>
+        <v>-6.6647633447197e-05</v>
       </c>
       <c r="I6" s="0">
-        <v>-0.00558569673553788</v>
+        <v>-0.0055867981475141828</v>
       </c>
       <c r="J6" s="0">
         <v>0</v>
       </c>
       <c r="K6" s="0">
-        <v>0.0038079529010187629</v>
+        <v>0.0038079369902778715</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="B7" s="0">
-        <v>0.53422032746849712</v>
+        <v>0.53429475734826581</v>
       </c>
       <c r="C7" s="0">
         <v>0</v>
       </c>
       <c r="D7" s="0">
-        <v>-0.038646351406731345</v>
+        <v>-0.038656790983625983</v>
       </c>
       <c r="E7" s="0">
-        <v>-0.0003135172223528947</v>
+        <v>-0.00031369078075605978</v>
       </c>
       <c r="F7" s="0">
-        <v>-0.0035074234410873676</v>
+        <v>-0.0035085940873540882</v>
       </c>
       <c r="G7" s="0">
-        <v>0.0055178376118961044</v>
+        <v>0.0055177399755155275</v>
       </c>
       <c r="H7" s="0">
         <v>0</v>
       </c>
       <c r="I7" s="0">
-        <v>0.0014233692471419118</v>
+        <v>0.0014233120359632674</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
       </c>
       <c r="K7" s="0">
-        <v>9.5054576567332738e-05</v>
+        <v>9.5054834076901962e-05</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="B8" s="0">
-        <v>0.27733281781214342</v>
+        <v>0.28053051091238096</v>
       </c>
       <c r="C8" s="0">
-        <v>-0.25677416796882269</v>
+        <v>-0.25365022355844302</v>
       </c>
       <c r="D8" s="0">
         <v>0</v>
       </c>
       <c r="E8" s="0">
-        <v>6.0934262812332989e-05</v>
+        <v>6.0934941984182012e-05</v>
       </c>
       <c r="F8" s="0">
-        <v>-0.0094797305990626784</v>
+        <v>-0.0094807057218160521</v>
       </c>
       <c r="G8" s="0">
         <v>0</v>
       </c>
       <c r="H8" s="0">
-        <v>-7.9755416366619579e-05</v>
+        <v>-7.9753525788405375e-05</v>
       </c>
       <c r="I8" s="0">
-        <v>0.0091158568991191891</v>
+        <v>0.0091161670030319615</v>
       </c>
       <c r="J8" s="0">
         <v>0</v>
       </c>
       <c r="K8" s="0">
-        <v>0.00026935316596676806</v>
+        <v>0.00026933442514642802</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="B9" s="0">
-        <v>-0.0091682033108067551</v>
+        <v>-0.0064011239419219379</v>
       </c>
       <c r="C9" s="0">
         <v>0</v>
       </c>
       <c r="D9" s="0">
-        <v>-0.060602523427100784</v>
+        <v>-0.06089166780733344</v>
       </c>
       <c r="E9" s="0">
-        <v>-0.036471416663417092</v>
+        <v>-0.036499888744238179</v>
       </c>
       <c r="F9" s="0">
-        <v>-0.18160950221176839</v>
+        <v>-0.18170754325635502</v>
       </c>
       <c r="G9" s="0">
-        <v>-0.0019522941699748554</v>
+        <v>-0.0019614745688454655</v>
       </c>
       <c r="H9" s="0">
-        <v>-0.0067421953824893573</v>
+        <v>-0.0067467602845291807</v>
       </c>
       <c r="I9" s="0">
-        <v>0.00081025889233536782</v>
+        <v>0.00080904066026612825</v>
       </c>
       <c r="J9" s="0">
         <v>0</v>
       </c>
       <c r="K9" s="0">
-        <v>6.6651839464970664e-05</v>
+        <v>6.665914673226192e-05</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="B10" s="0">
-        <v>0.27105488781685055</v>
+        <v>0.28153244975661457</v>
       </c>
       <c r="C10" s="0">
-        <v>0.29940625213767635</v>
+        <v>0.30727403193837344</v>
       </c>
       <c r="D10" s="0">
         <v>0</v>
       </c>
       <c r="E10" s="0">
-        <v>-0.00048393520133225025</v>
+        <v>-0.00048396533642513384</v>
       </c>
       <c r="F10" s="0">
-        <v>0.0052308180702636178</v>
+        <v>0.0052132085936798418</v>
       </c>
       <c r="G10" s="0">
         <v>0</v>
       </c>
       <c r="H10" s="0">
-        <v>-0.00063711193812828945</v>
+        <v>-0.00063712489764264607</v>
       </c>
       <c r="I10" s="0">
-        <v>0.0033847919265173648</v>
+        <v>0.0033691202965397357</v>
       </c>
       <c r="J10" s="0">
-        <v>-0.024106284730087649</v>
+        <v>-0.024230238910139673</v>
       </c>
       <c r="K10" s="0">
-        <v>-0.0025714391372518297</v>
+        <v>-0.0025714579858490683</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="B11" s="0">
-        <v>0.36004763830480274</v>
+        <v>0.36807994259692067</v>
       </c>
       <c r="C11" s="0">
         <v>0</v>
       </c>
       <c r="D11" s="0">
-        <v>0.017399576208688303</v>
+        <v>0.016123389531590371</v>
       </c>
       <c r="E11" s="0">
-        <v>0.021747499789598911</v>
+        <v>0.021510082238487788</v>
       </c>
       <c r="F11" s="0">
-        <v>0.11792430566574182</v>
+        <v>0.11709711786347254</v>
       </c>
       <c r="G11" s="0">
-        <v>0.0044940858928511906</v>
+        <v>0.0044722874112348814</v>
       </c>
       <c r="H11" s="0">
-        <v>0.00084080537049573351</v>
+        <v>0.00080038251862255385</v>
       </c>
       <c r="I11" s="0">
-        <v>-0.015169509176827998</v>
+        <v>-0.015211784396545911</v>
       </c>
       <c r="J11" s="0">
         <v>0</v>
       </c>
       <c r="K11" s="0">
-        <v>-0.058244013262595762</v>
+        <v>-0.058243982326556115</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="0">
+        <v>0.3195919305058359</v>
+      </c>
+      <c r="C12" s="0">
+        <v>-0.0205433504581066</v>
+      </c>
+      <c r="D12" s="0">
+        <v>0</v>
+      </c>
+      <c r="E12" s="0">
+        <v>0.00047162040210552364</v>
+      </c>
+      <c r="F12" s="0">
+        <v>0.00014335484008250762</v>
+      </c>
+      <c r="G12" s="0">
+        <v>0</v>
+      </c>
+      <c r="H12" s="0">
+        <v>-0.00037814925371547705</v>
+      </c>
+      <c r="I12" s="0">
+        <v>-0.0084832192442814095</v>
+      </c>
+      <c r="J12" s="0">
+        <v>0</v>
+      </c>
+      <c r="K12" s="0">
+        <v>-0.019698268377169315</v>
       </c>
     </row>
   </sheetData>

--- a/Nowcasts/2025Q3/tables/nowcasts_2025Q3_Nr1_Np1_Nj1.xlsx
+++ b/Nowcasts/2025Q3/tables/nowcasts_2025Q3_Nr1_Np1_Nj1.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>Row</t>
   </si>
@@ -172,6 +172,147 @@
   </si>
   <si>
     <t>2025-08-30</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-30</t>
+  </si>
+  <si>
+    <t>2025-09-15</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-30</t>
+  </si>
+  <si>
+    <t>2025-09-15</t>
+  </si>
+  <si>
+    <t>2025-09-30</t>
   </si>
   <si>
     <t>Prognose</t>
@@ -247,15 +388,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K14"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.37890625" customWidth="true"/>
-    <col min="2" max="2" width="15.24609375" customWidth="true"/>
-    <col min="3" max="3" width="14.64453125" customWidth="true"/>
+    <col min="2" max="2" width="14.24609375" customWidth="true"/>
+    <col min="3" max="3" width="15.24609375" customWidth="true"/>
     <col min="4" max="4" width="14.64453125" customWidth="true"/>
     <col min="5" max="5" width="16.24609375" customWidth="true"/>
-    <col min="6" max="6" width="16.24609375" customWidth="true"/>
+    <col min="6" max="6" width="15.77734375" customWidth="true"/>
     <col min="7" max="7" width="15.77734375" customWidth="true"/>
     <col min="8" max="8" width="16.24609375" customWidth="true"/>
     <col min="9" max="9" width="16.24609375" customWidth="true"/>
@@ -265,45 +406,45 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>53</v>
+        <v>100</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>54</v>
+        <v>101</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>55</v>
+        <v>102</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>56</v>
+        <v>103</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>57</v>
+        <v>104</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>58</v>
+        <v>105</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>59</v>
+        <v>106</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>60</v>
+        <v>107</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>61</v>
+        <v>108</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>62</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="B2" s="0">
-        <v>0.29515230513940172</v>
+        <v>0.2950919382704475</v>
       </c>
       <c r="C2" s="0">
         <v>0</v>
@@ -335,352 +476,422 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>43</v>
+        <v>88</v>
       </c>
       <c r="B3" s="0">
-        <v>0.29590581634224794</v>
+        <v>0.29585263505146747</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>0.0011378175204363643</v>
+        <v>0.0011433037316453533</v>
       </c>
       <c r="E3" s="0">
-        <v>-7.482977947776712e-05</v>
+        <v>-7.4557758991674141e-05</v>
       </c>
       <c r="F3" s="0">
-        <v>2.780734069021098e-06</v>
+        <v>3.7540207928502796e-06</v>
       </c>
       <c r="G3" s="0">
-        <v>-4.5767141353086311e-05</v>
+        <v>-4.5626392942718972e-05</v>
       </c>
       <c r="H3" s="0">
-        <v>3.2361616386279458e-07</v>
+        <v>3.6537330909921083e-07</v>
       </c>
       <c r="I3" s="0">
-        <v>-0.00034526102479022025</v>
+        <v>-0.00034498935016209856</v>
       </c>
       <c r="J3" s="0">
         <v>0</v>
       </c>
       <c r="K3" s="0">
-        <v>7.8447277798043835e-05</v>
+        <v>7.8447157369154752e-05</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>44</v>
+        <v>89</v>
       </c>
       <c r="B4" s="0">
-        <v>0.28563153069162722</v>
+        <v>0.28509681896900041</v>
       </c>
       <c r="C4" s="0">
-        <v>-0.0092187592196895981</v>
+        <v>-0.0097338540218948784</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>-1.0552066146064088e-05</v>
+        <v>-1.0559874832764612e-05</v>
       </c>
       <c r="F4" s="0">
-        <v>-3.8252996974079545e-07</v>
+        <v>-2.4101460981509033e-07</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
       </c>
       <c r="H4" s="0">
-        <v>6.7906626925608551e-06</v>
+        <v>7.0390309254057281e-06</v>
       </c>
       <c r="I4" s="0">
-        <v>-0.0014760168017231134</v>
+        <v>-0.0014747999797480966</v>
       </c>
       <c r="J4" s="0">
-        <v>0.00042033815336391057</v>
+        <v>0.00045230221011287493</v>
       </c>
       <c r="K4" s="0">
-        <v>4.2961508513461588e-06</v>
+        <v>4.2975675801915081e-06</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="B5" s="0">
-        <v>0.29018361655644137</v>
+        <v>0.28946427422085541</v>
       </c>
       <c r="C5" s="0">
-        <v>0.0077312126418730255</v>
+        <v>0.0075158587799723352</v>
       </c>
       <c r="D5" s="0">
-        <v>0.0010170571814887128</v>
+        <v>0.0010506700149482448</v>
       </c>
       <c r="E5" s="0">
-        <v>-0.00028040171741685623</v>
+        <v>-0.00028149026300504598</v>
       </c>
       <c r="F5" s="0">
-        <v>-0.00054262425465993714</v>
+        <v>-0.00054591942104057823</v>
       </c>
       <c r="G5" s="0">
-        <v>-0.0024635687512932322</v>
+        <v>-0.0024620974456322836</v>
       </c>
       <c r="H5" s="0">
-        <v>-5.5471590411047531e-05</v>
+        <v>-5.5659511006185334e-05</v>
       </c>
       <c r="I5" s="0">
-        <v>-0.0005368735911450152</v>
+        <v>-0.00053666112110997395</v>
       </c>
       <c r="J5" s="0">
         <v>0</v>
       </c>
       <c r="K5" s="0">
-        <v>-0.00031724405362149044</v>
+        <v>-0.00031724578127151348</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>46</v>
+        <v>91</v>
       </c>
       <c r="B6" s="0">
-        <v>0.56973772635444619</v>
+        <v>0.57089196633424699</v>
       </c>
       <c r="C6" s="0">
-        <v>0.28173281508188691</v>
+        <v>0.28359528127554023</v>
       </c>
       <c r="D6" s="0">
         <v>0</v>
       </c>
       <c r="E6" s="0">
-        <v>2.8075922827868678e-05</v>
+        <v>2.8073262427143496e-05</v>
       </c>
       <c r="F6" s="0">
-        <v>-0.00036127241602645904</v>
+        <v>-0.00035938263597335324</v>
       </c>
       <c r="G6" s="0">
         <v>0</v>
       </c>
       <c r="H6" s="0">
-        <v>-6.6647633447197e-05</v>
+        <v>-6.4475423916975086e-05</v>
       </c>
       <c r="I6" s="0">
-        <v>-0.0055867981475141828</v>
+        <v>-0.0055797432318643869</v>
       </c>
       <c r="J6" s="0">
         <v>0</v>
       </c>
       <c r="K6" s="0">
-        <v>0.0038079369902778715</v>
+        <v>0.003807938867178895</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>47</v>
+        <v>92</v>
       </c>
       <c r="B7" s="0">
-        <v>0.53429475734826581</v>
+        <v>0.53558022666507554</v>
       </c>
       <c r="C7" s="0">
         <v>0</v>
       </c>
       <c r="D7" s="0">
-        <v>-0.038656790983625983</v>
+        <v>-0.038602825659994872</v>
       </c>
       <c r="E7" s="0">
-        <v>-0.00031369078075605978</v>
+        <v>-0.00029522310683800676</v>
       </c>
       <c r="F7" s="0">
-        <v>-0.0035085940873540882</v>
+        <v>-0.0034422692459276671</v>
       </c>
       <c r="G7" s="0">
-        <v>0.0055177399755155275</v>
+        <v>0.005510326989348952</v>
       </c>
       <c r="H7" s="0">
         <v>0</v>
       </c>
       <c r="I7" s="0">
-        <v>0.0014233120359632674</v>
+        <v>0.001423196032338531</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
       </c>
       <c r="K7" s="0">
-        <v>9.5054834076901962e-05</v>
+        <v>9.505532190157151e-05</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="B8" s="0">
-        <v>0.28053051091238096</v>
+        <v>0.2688613403887512</v>
       </c>
       <c r="C8" s="0">
-        <v>-0.25365022355844302</v>
+        <v>-0.26656902437370805</v>
       </c>
       <c r="D8" s="0">
         <v>0</v>
       </c>
       <c r="E8" s="0">
-        <v>6.0934941984182012e-05</v>
+        <v>6.0957657717532231e-05</v>
       </c>
       <c r="F8" s="0">
-        <v>-0.0094807057218160521</v>
+        <v>-0.0094862886458089192</v>
       </c>
       <c r="G8" s="0">
         <v>0</v>
       </c>
       <c r="H8" s="0">
-        <v>-7.9753525788405375e-05</v>
+        <v>-7.9258460738967709e-05</v>
       </c>
       <c r="I8" s="0">
-        <v>0.0091161670030319615</v>
+        <v>0.0090853714897763376</v>
       </c>
       <c r="J8" s="0">
         <v>0</v>
       </c>
       <c r="K8" s="0">
-        <v>0.00026933442514642802</v>
+        <v>0.00026935605643774174</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>49</v>
+        <v>94</v>
       </c>
       <c r="B9" s="0">
-        <v>-0.0064011239419219379</v>
+        <v>-0.018190074144652124</v>
       </c>
       <c r="C9" s="0">
         <v>0</v>
       </c>
       <c r="D9" s="0">
-        <v>-0.06089166780733344</v>
+        <v>-0.060458732290385994</v>
       </c>
       <c r="E9" s="0">
-        <v>-0.036499888744238179</v>
+        <v>-0.036623698818099196</v>
       </c>
       <c r="F9" s="0">
-        <v>-0.18170754325635502</v>
+        <v>-0.18216257817555015</v>
       </c>
       <c r="G9" s="0">
-        <v>-0.0019614745688454655</v>
+        <v>-0.0019171319917631728</v>
       </c>
       <c r="H9" s="0">
-        <v>-0.0067467602845291807</v>
+        <v>-0.0067692049251947464</v>
       </c>
       <c r="I9" s="0">
-        <v>0.00080904066026612825</v>
+        <v>0.00081328574170261227</v>
       </c>
       <c r="J9" s="0">
         <v>0</v>
       </c>
       <c r="K9" s="0">
-        <v>6.665914673226192e-05</v>
+        <v>6.6645925887343083e-05</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="B10" s="0">
-        <v>0.28153244975661457</v>
+        <v>0.26967299034592029</v>
       </c>
       <c r="C10" s="0">
-        <v>0.30727403193837344</v>
+        <v>0.30649338947054755</v>
       </c>
       <c r="D10" s="0">
         <v>0</v>
       </c>
       <c r="E10" s="0">
-        <v>-0.00048396533642513384</v>
+        <v>-0.00048407576578532869</v>
       </c>
       <c r="F10" s="0">
-        <v>0.0052132085936798418</v>
+        <v>0.0052845237067795448</v>
       </c>
       <c r="G10" s="0">
         <v>0</v>
       </c>
       <c r="H10" s="0">
-        <v>-0.00063712489764264607</v>
+        <v>-0.00063722877368344825</v>
       </c>
       <c r="I10" s="0">
-        <v>0.0033691202965397357</v>
+        <v>0.0034412931989393431</v>
       </c>
       <c r="J10" s="0">
-        <v>-0.024230238910139673</v>
+        <v>-0.023663376964245017</v>
       </c>
       <c r="K10" s="0">
-        <v>-0.0025714579858490683</v>
+        <v>-0.0025714603819801951</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>51</v>
+        <v>96</v>
       </c>
       <c r="B11" s="0">
-        <v>0.36807994259692067</v>
+        <v>0.36384762169341689</v>
       </c>
       <c r="C11" s="0">
         <v>0</v>
       </c>
       <c r="D11" s="0">
-        <v>0.016123389531590371</v>
+        <v>0.019359374915325508</v>
       </c>
       <c r="E11" s="0">
-        <v>0.021510082238487788</v>
+        <v>0.02244194663985814</v>
       </c>
       <c r="F11" s="0">
-        <v>0.11709711786347254</v>
+        <v>0.12036019119315089</v>
       </c>
       <c r="G11" s="0">
-        <v>0.0044722874112348814</v>
+        <v>0.0044715910295998074</v>
       </c>
       <c r="H11" s="0">
-        <v>0.00080038251862255385</v>
+        <v>0.00095924656863306812</v>
       </c>
       <c r="I11" s="0">
-        <v>-0.015211784396545911</v>
+        <v>-0.015173662730191856</v>
       </c>
       <c r="J11" s="0">
         <v>0</v>
       </c>
       <c r="K11" s="0">
-        <v>-0.058243982326556115</v>
+        <v>-0.058244056268878963</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="B12" s="0">
-        <v>0.3195919305058359</v>
+        <v>0.25341101298603486</v>
       </c>
       <c r="C12" s="0">
-        <v>-0.0205433504581066</v>
+        <v>-0.028240509333175706</v>
       </c>
       <c r="D12" s="0">
         <v>0</v>
       </c>
       <c r="E12" s="0">
-        <v>0.00047162040210552364</v>
+        <v>0.0004726388001683136</v>
       </c>
       <c r="F12" s="0">
-        <v>0.00014335484008250762</v>
+        <v>-0.014043098699089511</v>
       </c>
       <c r="G12" s="0">
         <v>0</v>
       </c>
       <c r="H12" s="0">
-        <v>-0.00037814925371547705</v>
+        <v>-0.0025924646192354104</v>
       </c>
       <c r="I12" s="0">
-        <v>-0.0084832192442814095</v>
+        <v>-0.046775492199794731</v>
       </c>
       <c r="J12" s="0">
         <v>0</v>
       </c>
       <c r="K12" s="0">
-        <v>-0.019698268377169315</v>
+        <v>-0.019257682656254993</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="B13" s="0">
+        <v>0.31988106153532819</v>
+      </c>
+      <c r="C13" s="0">
+        <v>0</v>
+      </c>
+      <c r="D13" s="0">
+        <v>-0.07590653063196226</v>
+      </c>
+      <c r="E13" s="0">
+        <v>-0.111131929620064</v>
+      </c>
+      <c r="F13" s="0">
+        <v>-0.0038075585917598728</v>
+      </c>
+      <c r="G13" s="0">
+        <v>0.00011858923110639964</v>
+      </c>
+      <c r="H13" s="0">
+        <v>0.0046465991301229892</v>
+      </c>
+      <c r="I13" s="0">
+        <v>-0.0023493265911687725</v>
+      </c>
+      <c r="J13" s="0">
+        <v>0</v>
+      </c>
+      <c r="K13" s="0">
+        <v>0.25490020562301885</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="B14" s="0">
+        <v>0.22059912356693953</v>
+      </c>
+      <c r="C14" s="0">
+        <v>-0.085572189038643387</v>
+      </c>
+      <c r="D14" s="0">
+        <v>0</v>
+      </c>
+      <c r="E14" s="0">
+        <v>-0.00068412353363869586</v>
+      </c>
+      <c r="F14" s="0">
+        <v>-0.0014358155186200545</v>
+      </c>
+      <c r="G14" s="0">
+        <v>0</v>
+      </c>
+      <c r="H14" s="0">
+        <v>-9.1285698570078741e-05</v>
+      </c>
+      <c r="I14" s="0">
+        <v>-0.011362129243611338</v>
+      </c>
+      <c r="J14" s="0">
+        <v>0</v>
+      </c>
+      <c r="K14" s="0">
+        <v>-0.00013639493530509528</v>
       </c>
     </row>
   </sheetData>

--- a/Nowcasts/2025Q3/tables/nowcasts_2025Q3_Nr1_Np1_Nj1.xlsx
+++ b/Nowcasts/2025Q3/tables/nowcasts_2025Q3_Nr1_Np1_Nj1.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="135">
   <si>
     <t>Row</t>
   </si>
@@ -313,6 +313,81 @@
   </si>
   <si>
     <t>2025-09-30</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-30</t>
+  </si>
+  <si>
+    <t>2025-09-15</t>
+  </si>
+  <si>
+    <t>2025-09-30</t>
+  </si>
+  <si>
+    <t>2025-10-15</t>
   </si>
   <si>
     <t>Prognose</t>
@@ -388,7 +463,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K15"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.37890625" customWidth="true"/>
@@ -406,42 +481,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>86</v>
+        <v>110</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>104</v>
+        <v>129</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>109</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="B2" s="0">
         <v>0.2950919382704475</v>
@@ -476,7 +551,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="B3" s="0">
         <v>0.29585263505146747</v>
@@ -511,7 +586,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="B4" s="0">
         <v>0.28509681896900041</v>
@@ -546,7 +621,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="B5" s="0">
         <v>0.28946427422085541</v>
@@ -581,7 +656,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>91</v>
+        <v>115</v>
       </c>
       <c r="B6" s="0">
         <v>0.57089196633424699</v>
@@ -616,7 +691,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>92</v>
+        <v>116</v>
       </c>
       <c r="B7" s="0">
         <v>0.53558022666507554</v>
@@ -651,7 +726,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="B8" s="0">
         <v>0.2688613403887512</v>
@@ -686,7 +761,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="B9" s="0">
         <v>-0.018190074144652124</v>
@@ -721,7 +796,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="B10" s="0">
         <v>0.26967299034592029</v>
@@ -756,7 +831,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="B11" s="0">
         <v>0.36384762169341689</v>
@@ -791,7 +866,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="B12" s="0">
         <v>0.25341101298603486</v>
@@ -826,7 +901,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>98</v>
+        <v>122</v>
       </c>
       <c r="B13" s="0">
         <v>0.31988106153532819</v>
@@ -861,37 +936,72 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="B14" s="0">
-        <v>0.22059912356693953</v>
+        <v>0.21471788056398511</v>
       </c>
       <c r="C14" s="0">
-        <v>-0.085572189038643387</v>
+        <v>-0.085048954735770066</v>
       </c>
       <c r="D14" s="0">
         <v>0</v>
       </c>
       <c r="E14" s="0">
-        <v>-0.00068412353363869586</v>
+        <v>-0.00068608415379155956</v>
       </c>
       <c r="F14" s="0">
-        <v>-0.0014358155186200545</v>
+        <v>-0.0054131915997849243</v>
       </c>
       <c r="G14" s="0">
         <v>0</v>
       </c>
       <c r="H14" s="0">
-        <v>-9.1285698570078741e-05</v>
+        <v>-0.0052172691510674572</v>
       </c>
       <c r="I14" s="0">
-        <v>-0.011362129243611338</v>
+        <v>-0.011488232619336163</v>
       </c>
       <c r="J14" s="0">
         <v>0</v>
       </c>
       <c r="K14" s="0">
-        <v>-0.00013639493530509528</v>
+        <v>0.002690551288407117</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="B15" s="0">
+        <v>-0.40747958959044411</v>
+      </c>
+      <c r="C15" s="0">
+        <v>0</v>
+      </c>
+      <c r="D15" s="0">
+        <v>-0.40798286355801194</v>
+      </c>
+      <c r="E15" s="0">
+        <v>-0.025810700889498411</v>
+      </c>
+      <c r="F15" s="0">
+        <v>-0.040541681746683232</v>
+      </c>
+      <c r="G15" s="0">
+        <v>0.0019530150940171871</v>
+      </c>
+      <c r="H15" s="0">
+        <v>0</v>
+      </c>
+      <c r="I15" s="0">
+        <v>0</v>
+      </c>
+      <c r="J15" s="0">
+        <v>0</v>
+      </c>
+      <c r="K15" s="0">
+        <v>-0.14981523905425287</v>
       </c>
     </row>
   </sheetData>
